--- a/public/assets/uploads/Uploads/rol/rol_retailer.xlsx
+++ b/public/assets/uploads/Uploads/rol/rol_retailer.xlsx
@@ -7,9 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="rol_retailer" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -374,7 +372,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -445,28 +443,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/assets/uploads/Uploads/rol/rol_retailer.xlsx
+++ b/public/assets/uploads/Uploads/rol/rol_retailer.xlsx
@@ -73,8 +73,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,70 +373,71 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>58515696</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>58515696</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>58515696</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>6</v>
       </c>
     </row>

--- a/public/assets/uploads/Uploads/rol/rol_retailer.xlsx
+++ b/public/assets/uploads/Uploads/rol/rol_retailer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Product SKU Code</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Rol Quantity</t>
-  </si>
-  <si>
-    <t>box</t>
   </si>
   <si>
     <t>kg/ltr</t>
@@ -373,7 +370,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -406,9 +403,6 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="1">
         <v>2</v>
       </c>
@@ -417,11 +411,8 @@
       <c r="A3" s="1">
         <v>58515696</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
@@ -435,10 +426,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/uploads/Uploads/rol/rol_retailer.xlsx
+++ b/public/assets/uploads/Uploads/rol/rol_retailer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Product SKU Code</t>
   </si>
@@ -22,19 +22,10 @@
     <t>Product SKU Name</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
     <t>Rol Quantity</t>
-  </si>
-  <si>
-    <t>kg/ltr</t>
-  </si>
-  <si>
-    <t>packages</t>
   </si>
 </sst>
 </file>
@@ -367,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -390,43 +381,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>58515696</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>58515696</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>58515696</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
